--- a/csv/svm/svm_rawfda_sigmoid.xlsx
+++ b/csv/svm/svm_rawfda_sigmoid.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Best Par.1" r:id="rId3" sheetId="1"/>
-    <sheet name="Best Perf.1" r:id="rId4" sheetId="2"/>
-    <sheet name="Perf.2" r:id="rId5" sheetId="3"/>
-    <sheet name="Best Par.2" r:id="rId6" sheetId="4"/>
-    <sheet name="Best Perf.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sel. Par.1" r:id="rId4" sheetId="2"/>
+    <sheet name="Best Perf.1" r:id="rId5" sheetId="3"/>
+    <sheet name="Perf.2" r:id="rId6" sheetId="4"/>
+    <sheet name="Sel. Par.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Best Par.2" r:id="rId8" sheetId="6"/>
+    <sheet name="Best Perf.2" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>cost</t>
   </si>
@@ -24,12 +26,15 @@
     <t>gamma</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -37,9 +42,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -128,7 +130,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -150,23 +152,56 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.040909090909090895</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04177489177489178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -180,52 +215,52 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="n">
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04177489177489178</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04580307980438805</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="5">
@@ -236,10 +271,10 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="6">
@@ -250,10 +285,10 @@
         <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.041774891774891784</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.039925140622884644</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="7">
@@ -264,10 +299,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="8">
@@ -278,10 +313,10 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="9">
@@ -292,10 +327,10 @@
         <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="10">
@@ -306,10 +341,10 @@
         <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="11">
@@ -320,10 +355,10 @@
         <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.04632034632034632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04338913622506678</v>
+        <v>0.06279295017997834</v>
       </c>
     </row>
     <row r="12">
@@ -334,18 +369,45 @@
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04653679653679654</v>
+        <v>0.05086580086580086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04338913622506678</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.06782298667882036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -367,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -378,7 +440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -394,10 +456,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.040909090909090895</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04177489177489178</v>
       </c>
     </row>
   </sheetData>
